--- a/documentation/SSGD v2.0 codebook.xlsx
+++ b/documentation/SSGD v2.0 codebook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omar\World Bank\SSG database\paper\figures_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8EFC0C-2DF2-47C3-AA83-892DDD01A407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E367F9D-17B7-428C-AA04-E6F45ABD4AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39A305B4-F82F-4338-8C8F-A8E3E187CC91}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Resilience" sheetId="2" r:id="rId2"/>
     <sheet name="Social Cohesion" sheetId="3" r:id="rId3"/>
     <sheet name="Process Legitimacy" sheetId="4" r:id="rId4"/>
+    <sheet name="External Variables" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="521">
   <si>
     <t>Dimension</t>
   </si>
@@ -1828,6 +1829,480 @@
   </si>
   <si>
     <t>FINDEX</t>
+  </si>
+  <si>
+    <t>External variable</t>
+  </si>
+  <si>
+    <t>ex_ageg1</t>
+  </si>
+  <si>
+    <t>% aged 15-29</t>
+  </si>
+  <si>
+    <t>Share of population aged 15 to 29 years old</t>
+  </si>
+  <si>
+    <t>ex_ageg2</t>
+  </si>
+  <si>
+    <t>% aged 30-59</t>
+  </si>
+  <si>
+    <t>Share of population aged 30 to 59 years old</t>
+  </si>
+  <si>
+    <t>ex_ageg3</t>
+  </si>
+  <si>
+    <t>% aged 60+</t>
+  </si>
+  <si>
+    <t>Share of population aged 60+ years old</t>
+  </si>
+  <si>
+    <t>ex_avega2</t>
+  </si>
+  <si>
+    <t>Inequality of opportunities</t>
+  </si>
+  <si>
+    <t>Average value of the following rates: i) Birth registration, ii) Enrollment in preschool, iii) Survival at age 5, and iv) Equal remuneration for females doing equal work than males</t>
+  </si>
+  <si>
+    <t>ex_co2emissions</t>
+  </si>
+  <si>
+    <t>CO2 emissions</t>
+  </si>
+  <si>
+    <t>CO2 emissions in metric tons per capita</t>
+  </si>
+  <si>
+    <t>ex_coolingdays</t>
+  </si>
+  <si>
+    <t>Cooling degree days</t>
+  </si>
+  <si>
+    <t>Number of degrees that a day's average temperature is above 18.3°C</t>
+  </si>
+  <si>
+    <t>ex_disability1</t>
+  </si>
+  <si>
+    <t>% who experienced discrimination based on disability</t>
+  </si>
+  <si>
+    <t>Percentage of people who experienced discrimination based on disability</t>
+  </si>
+  <si>
+    <t>ex_disability2</t>
+  </si>
+  <si>
+    <t>% who have at least one household member living with disabilities</t>
+  </si>
+  <si>
+    <t>Percentage of people who have at least one household member living with disabilities</t>
+  </si>
+  <si>
+    <t>ex_energyint</t>
+  </si>
+  <si>
+    <t>Energy intensity level of primary energy</t>
+  </si>
+  <si>
+    <t>ex_eqocivil</t>
+  </si>
+  <si>
+    <t>EQOSOGI: Civil and political inclusion score</t>
+  </si>
+  <si>
+    <t>ex_eqocrimi</t>
+  </si>
+  <si>
+    <t>EQOSOGI: Criminalization and SOGI score</t>
+  </si>
+  <si>
+    <t>ex_eqoinclu</t>
+  </si>
+  <si>
+    <t>EQOSOGI: Access to inclusive education score</t>
+  </si>
+  <si>
+    <t>ex_eqolabor</t>
+  </si>
+  <si>
+    <t>EQOSOGI: Access to labor market score</t>
+  </si>
+  <si>
+    <t>ex_eqoprote</t>
+  </si>
+  <si>
+    <t>EQOSOGI: Protection from hate crimes score</t>
+  </si>
+  <si>
+    <t>ex_eqopubli</t>
+  </si>
+  <si>
+    <t>EQOSOGI: Access to public services and social protections score</t>
+  </si>
+  <si>
+    <t>ex_ferrat</t>
+  </si>
+  <si>
+    <t>Fertility rate</t>
+  </si>
+  <si>
+    <t>ex_forestarea</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>ex_gaphci</t>
+  </si>
+  <si>
+    <t>Inequality of opportunities, using HCI</t>
+  </si>
+  <si>
+    <t>Gap between human capital index male and female</t>
+  </si>
+  <si>
+    <t>ex_gdpppc</t>
+  </si>
+  <si>
+    <t>GDP per capita, PPP</t>
+  </si>
+  <si>
+    <t>GDP per capita, PPP (constant 2017 international $)</t>
+  </si>
+  <si>
+    <t>ex_gini</t>
+  </si>
+  <si>
+    <t>Gini index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>ex_hdi</t>
+  </si>
+  <si>
+    <t>ex_heatingdays</t>
+  </si>
+  <si>
+    <t>Heating degree days</t>
+  </si>
+  <si>
+    <t>Number of degrees that a day's average temperature is below 18.3°C</t>
+  </si>
+  <si>
+    <t>ex_humcap</t>
+  </si>
+  <si>
+    <t>ex_loggdp</t>
+  </si>
+  <si>
+    <t>Log of GDP per capita, PPP</t>
+  </si>
+  <si>
+    <t>ex_mulpov</t>
+  </si>
+  <si>
+    <t>Multidimensional poverty headcount ratio</t>
+  </si>
+  <si>
+    <t>ex_povnat</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty lines</t>
+  </si>
+  <si>
+    <t>ex_sex</t>
+  </si>
+  <si>
+    <t>% of male pop</t>
+  </si>
+  <si>
+    <t>Share of male population</t>
+  </si>
+  <si>
+    <t>ex_shapp</t>
+  </si>
+  <si>
+    <t>Shared prosperity premium</t>
+  </si>
+  <si>
+    <t>The difference between the annualized growth in the average consumption or income per capita of the poorest 40 percent and the entire population</t>
+  </si>
+  <si>
+    <t>ex_shapro</t>
+  </si>
+  <si>
+    <t>Shared prosperity</t>
+  </si>
+  <si>
+    <t>The annualized growth rate in the average consumption or income per capita of the poorest 40 percent of the population</t>
+  </si>
+  <si>
+    <t>ex_treeloss</t>
+  </si>
+  <si>
+    <t>Tree cover loss</t>
+  </si>
+  <si>
+    <t>Tree Cover Loss</t>
+  </si>
+  <si>
+    <t>ex_urbpop</t>
+  </si>
+  <si>
+    <t>% of urban pop</t>
+  </si>
+  <si>
+    <t>Share of population living in urban areas</t>
+  </si>
+  <si>
+    <t>ex_waterstress</t>
+  </si>
+  <si>
+    <t>Level of water stress</t>
+  </si>
+  <si>
+    <t>Freshwater withdrawal as a proportion of available freshwater resources</t>
+  </si>
+  <si>
+    <t>ex_youth</t>
+  </si>
+  <si>
+    <t>% aged 15-24 (w.r.t 15+ pop)</t>
+  </si>
+  <si>
+    <t>Share of population aged 15 to 24 years old (w.r.t. 15+ years old population)</t>
+  </si>
+  <si>
+    <t>ex_growthgdppc</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Annual percentage growth rate of GDP at market prices based on constant local currency. Aggregates are based on constant 2015 prices, expressed in U.S. dollars.</t>
+  </si>
+  <si>
+    <t>ex_indinternet</t>
+  </si>
+  <si>
+    <t>Individuals using the Internet (% of population)</t>
+  </si>
+  <si>
+    <t>ex_netmigration</t>
+  </si>
+  <si>
+    <t>Net migration</t>
+  </si>
+  <si>
+    <t>Net migration is the number of immigrants minus the number of emigrants, including citizens and noncitizens, for the five-year period.</t>
+  </si>
+  <si>
+    <t>ex_patentapp</t>
+  </si>
+  <si>
+    <t>Patent applications, residents</t>
+  </si>
+  <si>
+    <t>ex_polstab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Political Stability and Absence of Violence/Terrorism: Estimate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Political Stability and Absence of Violence/Terrorism measures perceptions of the likelihood of political instability and/or politically-motivated violence, including terrorism.</t>
+  </si>
+  <si>
+    <t>ex_ratiofem</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate is calculated by dividing female labor force participation rate by male labor force participation rate and multiplying by 100.</t>
+  </si>
+  <si>
+    <t>ex_regulqua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Regulatory Quality: Estimate</t>
+  </si>
+  <si>
+    <t>ex_researchexp</t>
+  </si>
+  <si>
+    <t>Research and development expenditure (% of GDP)</t>
+  </si>
+  <si>
+    <t>ex_schoolgpi</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>This indicator is calculated by dividing female gross enrollment ratio in primary and secondary education by male gross enrollment ratio in primary and secondary education.</t>
+  </si>
+  <si>
+    <t>ex_unmetcontr</t>
+  </si>
+  <si>
+    <t>Unmet need for contraception (% of married women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Unmet need for contraception is the percentage of fertile, married women of reproductive age who do not want to become pregnant and are not using contraception.</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>EQOSOGI</t>
+  </si>
+  <si>
+    <t>UNDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Gross domestic expenditures on research and development (R&amp;D), expressed as a percent of GDP. They include both capital and current expenditures in the four main sectors: Business enterprise, Government, Higher education and Private non-profit. R&amp;D covers basic research, applied research, and experimental development.</t>
+  </si>
+  <si>
+    <t>Regulatory Quality captures perceptions of the ability of the government to formulate and implement sound policies and regulations that permit and promote private sector development. Estimate gives the country's score on the aggregate indicator, in units of a standard normal distribution, i.e. ranging from approximately -2.5 to 2.5.</t>
+  </si>
+  <si>
+    <t>Patent applications are worldwide patent applications filed through the Patent Cooperation Treaty procedure or with a national patent office for exclusive rights for an invention--a product or process that provides a new way of doing something or offers a new technical solution to a problem. A patent provides protection for the invention to the owner of the patent for a limited period, generally 20 years.</t>
+  </si>
+  <si>
+    <t>Internet users are individuals who have used the Internet (from any location) in the last 3 months. The Internet can be used via a computer, mobile phone, personal digital assistant, games machine, digital TV etc.</t>
+  </si>
+  <si>
+    <t>This indicator is an average that measures the distance to an ideal setting for all countries around 4 indicators: 100% birth registration, 100% enrolment in preschool, 100% probability of survival at age 5 and 100% equal remuneration for females doing equal work than males.</t>
+  </si>
+  <si>
+    <t>AF: People who experienced discrimination based on disability
+0 = Never
+1 = Once or twice
+2 = Several times
+3 = Many times</t>
+  </si>
+  <si>
+    <t>AB: Number of people with disability living at household
+Numeric [0-10]</t>
+  </si>
+  <si>
+    <t>WDI: Gap between human capital index male and female</t>
+  </si>
+  <si>
+    <t>WDI: The shared prosperity premium is defined as the difference between the annualized growth in the average consumption or income per capita of the poorest 40 percent and the entire population</t>
+  </si>
+  <si>
+    <t>WDI: Shared prosperity is defined as the annualized growth rate in the average consumption or income per capita of the poorest 40 percent (the bottom 40) of the population in a country. It measures the extent to which economic growth is inclusive by focusing on household consumption or income growth among the poorest population rather than on growth in the average.</t>
+  </si>
+  <si>
+    <t>GMD: Age of respondent</t>
+  </si>
+  <si>
+    <t>ESG: CO2 emissions in metric tons per capita</t>
+  </si>
+  <si>
+    <t>ESG: Number of degrees that a day's average temperature is above 18.3°C</t>
+  </si>
+  <si>
+    <t>Energy intensity level of primary energy is the ratio between energy supply and gross domestic product measured at purchasing power parity. Energy intensity is an indication of how much energy is used to produce one unit of economic output. Lower ratio indicates that less energy is used to produce one unit of output.</t>
+  </si>
+  <si>
+    <t>ESG: Energy intensity level of primary energy ratio (MJ/$2017 PPP GDP).</t>
+  </si>
+  <si>
+    <t>Total fertility rate represents the number of children that would be born to a woman if she were to live to the end of her childbearing years and bear children in accordance with age-specific fertility rates of the specified year.</t>
+  </si>
+  <si>
+    <t>WDI: Fertility rate</t>
+  </si>
+  <si>
+    <t>Human Development Index</t>
+  </si>
+  <si>
+    <t>WDI: GDP per capita, PPP (constant 2017 international $)</t>
+  </si>
+  <si>
+    <t>WDI: Gini index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>UNDP: Human Development Index</t>
+  </si>
+  <si>
+    <t>Forest area is land under natural or planted stands of trees of at least 5 meters in situ, whether productive or not, and excludes tree stands in agricultural production systems (for example, in fruit plantations and agroforestry systems) and trees in urban parks and gardens.</t>
+  </si>
+  <si>
+    <t>ESG: Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>ESG: Heating degree days</t>
+  </si>
+  <si>
+    <t>The HCI calculates the contributions of health and education to worker productivity. The final index score ranges from zero to one and measures the productivity as a future worker of child born today relative to the benchmark of full health and complete education.</t>
+  </si>
+  <si>
+    <t>WDI: Human Capital Index</t>
+  </si>
+  <si>
+    <t>Human Capital Index</t>
+  </si>
+  <si>
+    <t>The multidimensional poverty headcount ratio (World Bank) is the percentage of a population living in poverty according to the World Bank's Multidimensional Poverty Measure. The Multidimensional Poverty Measure includes three dimensions – monetary poverty, education, and basic infrastructure services – to capture a more complete picture of poverty.</t>
+  </si>
+  <si>
+    <t>WDI: Multidimensional poverty headcount ratio</t>
+  </si>
+  <si>
+    <t>WDI: Poverty headcount ratio at national poverty lines</t>
+  </si>
+  <si>
+    <t>GMD: Gender of respondent
+1 = Male
+0 = Female</t>
+  </si>
+  <si>
+    <t>GMD: Location
+1 = Urban
+0 = Rural</t>
+  </si>
+  <si>
+    <t>ESG: Individuals using the Internet (% of population)</t>
+  </si>
+  <si>
+    <t>ESG: Net migration</t>
+  </si>
+  <si>
+    <t>ESG: Patent applications, residents</t>
+  </si>
+  <si>
+    <t>ESG: Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>ESG: Research and development expenditure (% of GDP)</t>
+  </si>
+  <si>
+    <t>ESG: School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>ESG: Unmet need for contraception (% of married women ages 15-49)</t>
+  </si>
+  <si>
+    <t>WGI: Political Stability and Absence of Violence/Terrorism: Estimate</t>
+  </si>
+  <si>
+    <t>WGI: Regulatory Quality: Estimate</t>
+  </si>
+  <si>
+    <t>WDI: GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>ESG: Level of water stress</t>
   </si>
 </sst>
 </file>
@@ -1907,7 +2382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1954,6 +2429,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1980,6 +2471,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2297,9 +2797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6076DEB1-9DD4-4009-8CB4-9AD827C47535}">
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2315,42 +2813,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2370,8 +2868,8 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="3" t="s">
         <v>14</v>
       </c>
@@ -2389,8 +2887,8 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
@@ -2408,8 +2906,8 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="5" t="s">
         <v>21</v>
       </c>
@@ -2427,8 +2925,8 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
@@ -2446,8 +2944,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -2467,8 +2965,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="6" t="s">
         <v>33</v>
       </c>
@@ -2486,8 +2984,8 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="6" t="s">
         <v>37</v>
       </c>
@@ -2505,8 +3003,8 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="6" t="s">
         <v>41</v>
       </c>
@@ -2524,8 +3022,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="360" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="6" t="s">
         <v>45</v>
       </c>
@@ -2543,8 +3041,8 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="26" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -2564,8 +3062,8 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="5" t="s">
         <v>55</v>
       </c>
@@ -2583,8 +3081,8 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="5" t="s">
         <v>59</v>
       </c>
@@ -2602,8 +3100,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="5" t="s">
         <v>62</v>
       </c>
@@ -2621,8 +3119,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="5" t="s">
         <v>66</v>
       </c>
@@ -2640,8 +3138,8 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="22" t="s">
         <v>350</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -2661,8 +3159,8 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="6" t="s">
         <v>357</v>
       </c>
@@ -2680,8 +3178,8 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="6" t="s">
         <v>358</v>
       </c>
@@ -2699,8 +3197,8 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="6" t="s">
         <v>359</v>
       </c>
@@ -2718,8 +3216,8 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="6" t="s">
         <v>360</v>
       </c>
@@ -2737,8 +3235,8 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="6" t="s">
         <v>361</v>
       </c>
@@ -2756,8 +3254,8 @@
       </c>
     </row>
     <row r="25" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="6" t="s">
         <v>362</v>
       </c>
@@ -2775,8 +3273,8 @@
       </c>
     </row>
     <row r="26" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="6" t="s">
         <v>363</v>
       </c>
@@ -2794,8 +3292,8 @@
       </c>
     </row>
     <row r="27" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="6" t="s">
         <v>364</v>
       </c>
@@ -2813,8 +3311,8 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
       <c r="D28" s="9" t="s">
         <v>89</v>
       </c>
@@ -2854,9 +3352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EAA36F-FB67-40E1-BF91-53944F3B0839}">
   <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2872,42 +3368,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="24" t="s">
         <v>94</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -2927,8 +3423,8 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="6" t="s">
         <v>99</v>
       </c>
@@ -2946,8 +3442,8 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="6" t="s">
         <v>103</v>
       </c>
@@ -2965,8 +3461,8 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="6" t="s">
         <v>107</v>
       </c>
@@ -2984,8 +3480,8 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="6" t="s">
         <v>111</v>
       </c>
@@ -3003,8 +3499,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="6" t="s">
         <v>115</v>
       </c>
@@ -3022,8 +3518,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="6" t="s">
         <v>119</v>
       </c>
@@ -3041,8 +3537,8 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="6" t="s">
         <v>123</v>
       </c>
@@ -3060,8 +3556,8 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="6" t="s">
         <v>127</v>
       </c>
@@ -3079,8 +3575,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="6" t="s">
         <v>131</v>
       </c>
@@ -3098,8 +3594,8 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="6" t="s">
         <v>135</v>
       </c>
@@ -3117,8 +3613,8 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="6" t="s">
         <v>138</v>
       </c>
@@ -3136,8 +3632,8 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="6" t="s">
         <v>143</v>
       </c>
@@ -3155,8 +3651,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="6" t="s">
         <v>148</v>
       </c>
@@ -3174,8 +3670,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="285" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="6" t="s">
         <v>153</v>
       </c>
@@ -3193,8 +3689,8 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="9" t="s">
         <v>158</v>
       </c>
@@ -3231,9 +3727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A999D4-8369-47DC-9575-F397AA4AC9D4}">
   <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D23"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3249,42 +3743,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="2:8" ht="300" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="22" t="s">
         <v>161</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3304,8 +3798,8 @@
       </c>
     </row>
     <row r="5" spans="2:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
       <c r="D5" s="6" t="s">
         <v>167</v>
       </c>
@@ -3323,8 +3817,8 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="6" t="s">
         <v>172</v>
       </c>
@@ -3342,8 +3836,8 @@
       </c>
     </row>
     <row r="7" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="6" t="s">
         <v>177</v>
       </c>
@@ -3361,8 +3855,8 @@
       </c>
     </row>
     <row r="8" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="6" t="s">
         <v>182</v>
       </c>
@@ -3380,8 +3874,8 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="6" t="s">
         <v>186</v>
       </c>
@@ -3399,8 +3893,8 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="360" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="6" t="s">
         <v>190</v>
       </c>
@@ -3418,8 +3912,8 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="6" t="s">
         <v>194</v>
       </c>
@@ -3437,8 +3931,8 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="6" t="s">
         <v>198</v>
       </c>
@@ -3456,8 +3950,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="6" t="s">
         <v>203</v>
       </c>
@@ -3475,8 +3969,8 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="255" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="6" t="s">
         <v>208</v>
       </c>
@@ -3494,8 +3988,8 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="6" t="s">
         <v>213</v>
       </c>
@@ -3513,8 +4007,8 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="6" t="s">
         <v>218</v>
       </c>
@@ -3532,8 +4026,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="330" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="6" t="s">
         <v>223</v>
       </c>
@@ -3551,8 +4045,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="6" t="s">
         <v>227</v>
       </c>
@@ -3570,8 +4064,8 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="6" t="s">
         <v>232</v>
       </c>
@@ -3589,8 +4083,8 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="165" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="6" t="s">
         <v>237</v>
       </c>
@@ -3608,8 +4102,8 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="6" t="s">
         <v>352</v>
       </c>
@@ -3627,8 +4121,8 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="6" t="s">
         <v>245</v>
       </c>
@@ -3646,8 +4140,8 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="10" t="s">
         <v>249</v>
       </c>
@@ -3684,9 +4178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03345100-042D-4FEF-ADD8-004BAB1EB1EC}">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3702,177 +4194,177 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="22" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="25" t="s">
         <v>252</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="2" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="240" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="4" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="4" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22" t="s">
         <v>281</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -3892,8 +4384,8 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="6" t="s">
         <v>287</v>
       </c>
@@ -3911,8 +4403,8 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
       <c r="D13" s="6" t="s">
         <v>291</v>
       </c>
@@ -3930,8 +4422,8 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="6" t="s">
         <v>295</v>
       </c>
@@ -3949,8 +4441,8 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="6" t="s">
         <v>298</v>
       </c>
@@ -3968,8 +4460,8 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="6" t="s">
         <v>300</v>
       </c>
@@ -3987,8 +4479,8 @@
       </c>
     </row>
     <row r="17" spans="2:8" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="6" t="s">
         <v>305</v>
       </c>
@@ -4006,8 +4498,8 @@
       </c>
     </row>
     <row r="18" spans="2:8" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="6" t="s">
         <v>309</v>
       </c>
@@ -4025,8 +4517,8 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="32.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="6" t="s">
         <v>313</v>
       </c>
@@ -4044,8 +4536,8 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="6" t="s">
         <v>317</v>
       </c>
@@ -4063,8 +4555,8 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="6" t="s">
         <v>321</v>
       </c>
@@ -4082,8 +4574,8 @@
       </c>
     </row>
     <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="6" t="s">
         <v>326</v>
       </c>
@@ -4101,8 +4593,8 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="6" t="s">
         <v>331</v>
       </c>
@@ -4120,8 +4612,8 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="6" t="s">
         <v>334</v>
       </c>
@@ -4139,8 +4631,8 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="6" t="s">
         <v>337</v>
       </c>
@@ -4158,8 +4650,8 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="6" t="s">
         <v>340</v>
       </c>
@@ -4177,8 +4669,8 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="9" t="s">
         <v>343</v>
       </c>
@@ -4196,67 +4688,62 @@
       </c>
     </row>
     <row r="28" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
     </row>
     <row r="30" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="30" t="s">
         <v>356</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="B4:B27"/>
     <mergeCell ref="C4:C10"/>
@@ -4267,6 +4754,896 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF538FB-4517-403F-8115-DDCB136C443E}">
+  <dimension ref="B2:H46"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="19" style="17" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="39.28515625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="69.5703125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="54" style="7" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>366</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>472</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B4:B46"/>
+    <mergeCell ref="C4:C46"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documentation/SSGD v2.0 codebook.xlsx
+++ b/documentation/SSGD v2.0 codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omar\World Bank\SSG database\paper\figures_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E367F9D-17B7-428C-AA04-E6F45ABD4AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B034F253-4ED6-4CC9-8DC7-A6CD352235B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39A305B4-F82F-4338-8C8F-A8E3E187CC91}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{39A305B4-F82F-4338-8C8F-A8E3E187CC91}"/>
   </bookViews>
   <sheets>
     <sheet name="Social Inclusion" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="521">
   <si>
     <t>Dimension</t>
   </si>
@@ -300,9 +300,6 @@
     <t>GMD: Uses the harmonised variable "socialsec" (social security status) which has 2 values
 0 = No
 1 = Yes</t>
-  </si>
-  <si>
-    <t>Women, Business and the Law (WBL) score</t>
   </si>
   <si>
     <t>wbl_index</t>
@@ -1277,12 +1274,6 @@
     <t>rullaw</t>
   </si>
   <si>
-    <t>Rule of Law index</t>
-  </si>
-  <si>
-    <t>WGI: Rule of law index</t>
-  </si>
-  <si>
     <t>WGI</t>
   </si>
   <si>
@@ -1304,12 +1295,6 @@
     <t>goveff</t>
   </si>
   <si>
-    <t>Government effectiveness index</t>
-  </si>
-  <si>
-    <t>WGI: Government effectiveness index</t>
-  </si>
-  <si>
     <r>
       <t>Control of corruption</t>
     </r>
@@ -1328,12 +1313,6 @@
     <t>concor</t>
   </si>
   <si>
-    <t>Control of corruption index</t>
-  </si>
-  <si>
-    <t>WGI: Control of corruption index</t>
-  </si>
-  <si>
     <r>
       <t>Voice and accountability</t>
     </r>
@@ -1352,12 +1331,6 @@
     <t>voiceest</t>
   </si>
   <si>
-    <t>Voice and accountability index</t>
-  </si>
-  <si>
-    <t>Economic and social rights performance score</t>
-  </si>
-  <si>
     <t>econsocrights</t>
   </si>
   <si>
@@ -1379,12 +1352,6 @@
     <t>riggua</t>
   </si>
   <si>
-    <t>Life and security are effectively guaranteed score</t>
-  </si>
-  <si>
-    <t>WJP: Fundamental Rights - The right to life and security of the person is effectively guaranteed score</t>
-  </si>
-  <si>
     <t>WJP</t>
   </si>
   <si>
@@ -1406,12 +1373,6 @@
     <t>powlim</t>
   </si>
   <si>
-    <t>Government power are limited by the judiciary score</t>
-  </si>
-  <si>
-    <t>WJP: Constraints on Government Powers - Government powers are effectively limited by the judiciary</t>
-  </si>
-  <si>
     <r>
       <t>Equal treatment and absence of discrimination</t>
     </r>
@@ -1430,12 +1391,6 @@
     <t>nodis</t>
   </si>
   <si>
-    <t>Equal treatment and absence of discrimination score</t>
-  </si>
-  <si>
-    <t>WJP: Fundamental Rights - Equal treatment and absence of discrimination</t>
-  </si>
-  <si>
     <r>
       <t>Government regulations are applied and enforced without improper influence</t>
     </r>
@@ -1454,12 +1409,6 @@
     <t>govreg</t>
   </si>
   <si>
-    <t>Government regulations are applied and enforced without improper influence score</t>
-  </si>
-  <si>
-    <t>WJP: Regulatory Enforcement - Government regulations are applied and enforced without improper influence</t>
-  </si>
-  <si>
     <r>
       <t>People can access and afford civil justice</t>
     </r>
@@ -1478,12 +1427,6 @@
     <t>accjus</t>
   </si>
   <si>
-    <t>People can access and afford civil justice</t>
-  </si>
-  <si>
-    <t>WJP: Civil Justice - People can access and afford civil justice</t>
-  </si>
-  <si>
     <r>
       <t>Civic space score</t>
     </r>
@@ -1502,12 +1445,6 @@
     <t>civspa</t>
   </si>
   <si>
-    <t>Civic space score</t>
-  </si>
-  <si>
-    <t>CIVICUS: Civic space score</t>
-  </si>
-  <si>
     <t>CIVICUS</t>
   </si>
   <si>
@@ -1518,9 +1455,6 @@
   </si>
   <si>
     <t>The Democracy Index is an index measuring the quality of democracy across the world. Is centrally concerned with democratic rights and democratic institutions.</t>
-  </si>
-  <si>
-    <t>EIU: The Democracy Index is an index measuring the quality of democracy across the world. Is centrally concerned with democratic rights and democratic institutions.</t>
   </si>
   <si>
     <t>EIU</t>
@@ -1666,12 +1600,6 @@
     <t>Fatalities due to violence</t>
   </si>
   <si>
-    <t>WGI: Voice and accountability index</t>
-  </si>
-  <si>
-    <t>WGI: Economic and social rights performance score</t>
-  </si>
-  <si>
     <r>
       <t>Women, Business and the Law (WBL) score</t>
     </r>
@@ -1837,39 +1765,24 @@
     <t>ex_ageg1</t>
   </si>
   <si>
-    <t>% aged 15-29</t>
-  </si>
-  <si>
     <t>Share of population aged 15 to 29 years old</t>
   </si>
   <si>
     <t>ex_ageg2</t>
   </si>
   <si>
-    <t>% aged 30-59</t>
-  </si>
-  <si>
     <t>Share of population aged 30 to 59 years old</t>
   </si>
   <si>
     <t>ex_ageg3</t>
   </si>
   <si>
-    <t>% aged 60+</t>
-  </si>
-  <si>
     <t>Share of population aged 60+ years old</t>
   </si>
   <si>
     <t>ex_avega2</t>
   </si>
   <si>
-    <t>Inequality of opportunities</t>
-  </si>
-  <si>
-    <t>Average value of the following rates: i) Birth registration, ii) Enrollment in preschool, iii) Survival at age 5, and iv) Equal remuneration for females doing equal work than males</t>
-  </si>
-  <si>
     <t>ex_co2emissions</t>
   </si>
   <si>
@@ -1891,18 +1804,12 @@
     <t>ex_disability1</t>
   </si>
   <si>
-    <t>% who experienced discrimination based on disability</t>
-  </si>
-  <si>
     <t>Percentage of people who experienced discrimination based on disability</t>
   </si>
   <si>
     <t>ex_disability2</t>
   </si>
   <si>
-    <t>% who have at least one household member living with disabilities</t>
-  </si>
-  <si>
     <t>Percentage of people who have at least one household member living with disabilities</t>
   </si>
   <si>
@@ -1966,9 +1873,6 @@
     <t>Inequality of opportunities, using HCI</t>
   </si>
   <si>
-    <t>Gap between human capital index male and female</t>
-  </si>
-  <si>
     <t>ex_gdpppc</t>
   </si>
   <si>
@@ -2020,9 +1924,6 @@
     <t>ex_sex</t>
   </si>
   <si>
-    <t>% of male pop</t>
-  </si>
-  <si>
     <t>Share of male population</t>
   </si>
   <si>
@@ -2050,15 +1951,9 @@
     <t>Tree cover loss</t>
   </si>
   <si>
-    <t>Tree Cover Loss</t>
-  </si>
-  <si>
     <t>ex_urbpop</t>
   </si>
   <si>
-    <t>% of urban pop</t>
-  </si>
-  <si>
     <t>Share of population living in urban areas</t>
   </si>
   <si>
@@ -2074,9 +1969,6 @@
     <t>ex_youth</t>
   </si>
   <si>
-    <t>% aged 15-24 (w.r.t 15+ pop)</t>
-  </si>
-  <si>
     <t>Share of population aged 15 to 24 years old (w.r.t. 15+ years old population)</t>
   </si>
   <si>
@@ -2113,9 +2005,6 @@
     <t>ex_polstab</t>
   </si>
   <si>
-    <t xml:space="preserve">	Political Stability and Absence of Violence/Terrorism: Estimate</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Political Stability and Absence of Violence/Terrorism measures perceptions of the likelihood of political instability and/or politically-motivated violence, including terrorism.</t>
   </si>
   <si>
@@ -2129,9 +2018,6 @@
   </si>
   <si>
     <t>ex_regulqua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Regulatory Quality: Estimate</t>
   </si>
   <si>
     <t>ex_researchexp</t>
@@ -2193,22 +2079,7 @@
 Numeric [0-10]</t>
   </si>
   <si>
-    <t>WDI: Gap between human capital index male and female</t>
-  </si>
-  <si>
-    <t>WDI: The shared prosperity premium is defined as the difference between the annualized growth in the average consumption or income per capita of the poorest 40 percent and the entire population</t>
-  </si>
-  <si>
-    <t>WDI: Shared prosperity is defined as the annualized growth rate in the average consumption or income per capita of the poorest 40 percent (the bottom 40) of the population in a country. It measures the extent to which economic growth is inclusive by focusing on household consumption or income growth among the poorest population rather than on growth in the average.</t>
-  </si>
-  <si>
     <t>GMD: Age of respondent</t>
-  </si>
-  <si>
-    <t>ESG: CO2 emissions in metric tons per capita</t>
-  </si>
-  <si>
-    <t>ESG: Number of degrees that a day's average temperature is above 18.3°C</t>
   </si>
   <si>
     <t>Energy intensity level of primary energy is the ratio between energy supply and gross domestic product measured at purchasing power parity. Energy intensity is an indication of how much energy is used to produce one unit of economic output. Lower ratio indicates that less energy is used to produce one unit of output.</t>
@@ -2293,16 +2164,145 @@
     <t>ESG: Unmet need for contraception (% of married women ages 15-49)</t>
   </si>
   <si>
-    <t>WGI: Political Stability and Absence of Violence/Terrorism: Estimate</t>
-  </si>
-  <si>
-    <t>WGI: Regulatory Quality: Estimate</t>
-  </si>
-  <si>
     <t>WDI: GDP growth (annual %)</t>
   </si>
   <si>
     <t>ESG: Level of water stress</t>
+  </si>
+  <si>
+    <t>% of pop aged 15-29</t>
+  </si>
+  <si>
+    <t>% of pop aged 30-59</t>
+  </si>
+  <si>
+    <t>% of pop aged 60+</t>
+  </si>
+  <si>
+    <t>Inequality of opportunities index</t>
+  </si>
+  <si>
+    <t>% of pop who experienced discrimination based on disability</t>
+  </si>
+  <si>
+    <t>% of pop who have at least one household member living with disabilities</t>
+  </si>
+  <si>
+    <t>The Human Development Index (HDI) is a summary measure of average achievement in key dimensions of human development: a long and healthy life, being knowledgeable and having a decent standard of living. The HDI is the geometric mean of normalized indices for each of the three dimensions.</t>
+  </si>
+  <si>
+    <t>% of male population</t>
+  </si>
+  <si>
+    <t>The Economic and Social Rights Performance Score reflects how well countries are fulfilling their citizens' economic and social rights. This score evaluates performance based on the rights to food, education, health, housing, and work, taking into account a country’s income level to provide a fair comparison across different economic contexts.</t>
+  </si>
+  <si>
+    <t>The inequality of opportunities index is computed as the gap in the Human Capital Index between males and females.</t>
+  </si>
+  <si>
+    <t>The Tree Cover Loss indicator shows year-by-year tree cover loss, defined as stand level replacement of vegetation greater than 5 meters, within the selected area. The tree cover loss data set is a collaboration of the University of Maryland, Google, USGS, and NASA, and uses Landsat satellite images to map annual tree cover loss at a 30 × 30 meter resolution. Note that “tree cover loss” is not the same as “deforestation” – tree cover loss includes change in both natural and planted forest, and does not need to be human caused. The data from 2011 onward were produced with an updated methodology that may capture additional loss. Comparisons between the original 2001-2010 data and future years should be performed with caution.</t>
+  </si>
+  <si>
+    <t>% of urban population</t>
+  </si>
+  <si>
+    <t>% of pop aged 15-24 (w.r.t 15+ pop)</t>
+  </si>
+  <si>
+    <t>This indicator measures the accessibility and affordability of civil courts, including whether people are aware of available remedies; can access and afford legal advice and representation; and can access the court system without incurring unreasonable fees, encountering unreasonable procedural hurdles, or experiencing physical or linguistic barriers.</t>
+  </si>
+  <si>
+    <t>Control of corruption captures perceptions of the extent to which public power is exercised for private gain, including both petty and grand forms of corruption, as well as "capture" of the state by elites and private interests.</t>
+  </si>
+  <si>
+    <t>Government effectiveness captures perceptions of the quality of public services, the quality of the civil service and the degree of its independence from political pressures, the quality of policy formulation and implementation, and the credibility of the government's commitment to such policies.</t>
+  </si>
+  <si>
+    <t>This indicator measures whether individuals are free from discrimination—based on socio-economic status, gender, ethnicity, religion, national origin, sexual orientation, or gender identity—with respect to public services, employment, court proceedings, and the justice system.</t>
+  </si>
+  <si>
+    <t>This indicator measures whether the enforcement of regulations is subject to bribery or improper influence by private interests, and whether public services, such as the issuance of permits and licenses and the administration of public health services, are provided without bribery or other inducements.</t>
+  </si>
+  <si>
+    <t>This indicator measures whether the judiciary has the independence and the ability in practice to exercise effective checks on the government.</t>
+  </si>
+  <si>
+    <t>This indicator measures whether the police inflict physical harm upon criminal suspects during arrest and interrogation, and whether political dissidents or members of the media are subjected to unreasonable searches, arrest, detention, imprisonment, threats, abusive treatment, or violence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rule of law captures perceptions of the extent to which agents have confidence in and abide by the rules of society, and in particular the quality of contract enforcement, property rights, the police, and the courts, as well as the likelihood of crime and violence. </t>
+  </si>
+  <si>
+    <t>Voice and accountability captures perceptions of the extent to which a country's citizens are able to participate in selecting their government, as well as freedom of expression, freedom of association, and a free media.</t>
+  </si>
+  <si>
+    <t>The Women, Business, and the Law score measures how laws and regulations affect women's economic opportunity in 190 economies. It assesses areas such as mobility, workplace rights, pay, marriage, parenthood, entrepreneurship, assets, and pension, providing a score that reflects the degree to which a nation's legal framework supports women's economic participation.</t>
+  </si>
+  <si>
+    <t>WBL: The Women, Business, and the Law score measures how laws and regulations affect women's economic opportunity in 190 economies. It assesses areas such as mobility, workplace rights, pay, marriage, parenthood, entrepreneurship, assets, and pension, providing a score that reflects the degree to which a nation's legal framework supports women's economic participation.</t>
+  </si>
+  <si>
+    <t>The Civic Space Score measures the state of civic freedoms in a country, specifically evaluating the conditions for civil society based on three fundamental dimensions: freedom of association, freedom of peaceful assembly, and freedom of expression. This score helps to assess whether citizens are able to engage and communicate without undue interference or repression by the state.</t>
+  </si>
+  <si>
+    <t>Regulatory Quality: Estimate</t>
+  </si>
+  <si>
+    <t>Political Stability and Absence of Violence/Terrorism: Estimate</t>
+  </si>
+  <si>
+    <t>WGI: Regulatory Quality estimate</t>
+  </si>
+  <si>
+    <t>WGI: Political Stability and Absence of Violence/Terrorism estimate</t>
+  </si>
+  <si>
+    <t>ESG: The Tree Cover Loss</t>
+  </si>
+  <si>
+    <t>ESG: CO2 emissions</t>
+  </si>
+  <si>
+    <t>ESG: Cooling degree days</t>
+  </si>
+  <si>
+    <t>EIU: Democracy Index</t>
+  </si>
+  <si>
+    <t>CIVICUS: Civic Space Score</t>
+  </si>
+  <si>
+    <t>WJP: People can access and afford civil justice</t>
+  </si>
+  <si>
+    <t>WJP: Government regulations are applied and enforced without improper influence</t>
+  </si>
+  <si>
+    <t>WJP: Equal treatment and absence of discrimination</t>
+  </si>
+  <si>
+    <t>WJP: Government powers are limited by the judiciary</t>
+  </si>
+  <si>
+    <t>WJP: Life and security are effectively guaranteed</t>
+  </si>
+  <si>
+    <t>Economic and Social Rights Performance Score</t>
+  </si>
+  <si>
+    <t>ESG: Economic and Social Rights Performance Score</t>
+  </si>
+  <si>
+    <t>WGI: Voice and accountability</t>
+  </si>
+  <si>
+    <t>WGI: Control of corruption</t>
+  </si>
+  <si>
+    <t>WGI: Government effectiveness</t>
+  </si>
+  <si>
+    <t>WGI: Rule of law</t>
   </si>
 </sst>
 </file>
@@ -2797,7 +2797,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6076DEB1-9DD4-4009-8CB4-9AD827C47535}">
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2937,10 +2939,10 @@
         <v>27</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="60" x14ac:dyDescent="0.25">
@@ -3137,196 +3139,196 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="22" t="s">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="6" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="6" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="6" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="6" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="6" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="6" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="6" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="6" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="F28" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="11" t="s">
         <v>92</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3352,7 +3354,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EAA36F-FB67-40E1-BF91-53944F3B0839}">
   <dimension ref="B2:H19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3401,22 +3405,22 @@
     </row>
     <row r="4" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>98</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>13</v>
@@ -3426,16 +3430,16 @@
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>13</v>
@@ -3445,16 +3449,16 @@
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>13</v>
@@ -3464,16 +3468,16 @@
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>13</v>
@@ -3483,16 +3487,16 @@
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>13</v>
@@ -3502,16 +3506,16 @@
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>13</v>
@@ -3521,16 +3525,16 @@
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>13</v>
@@ -3540,16 +3544,16 @@
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>13</v>
@@ -3559,16 +3563,16 @@
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>13</v>
@@ -3578,16 +3582,16 @@
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>13</v>
@@ -3597,16 +3601,16 @@
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>13</v>
@@ -3616,92 +3620,92 @@
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="8" t="s">
         <v>151</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="285" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="10" t="s">
-        <v>160</v>
-      </c>
       <c r="G19" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>13</v>
@@ -3727,7 +3731,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A999D4-8369-47DC-9575-F397AA4AC9D4}">
   <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3776,269 +3782,269 @@
     </row>
     <row r="4" spans="2:8" ht="300" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="8" t="s">
         <v>170</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="8" t="s">
         <v>175</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="8" t="s">
         <v>180</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="H8" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="H9" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="360" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="H10" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="H11" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="8" t="s">
         <v>201</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="255" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="H15" s="8" t="s">
         <v>216</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="8" t="s">
         <v>221</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="330" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>49</v>
@@ -4048,114 +4054,114 @@
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="8" t="s">
         <v>230</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="8" t="s">
         <v>240</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="6" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="H21" s="8" t="s">
         <v>243</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="H22" s="8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>249</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4178,7 +4184,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03345100-042D-4FEF-ADD8-004BAB1EB1EC}">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="H20" sqref="D16:H20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4227,117 +4235,117 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="D4" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="E4" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="F4" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B5" s="22"/>
       <c r="C5" s="26"/>
       <c r="D5" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B6" s="22"/>
       <c r="C6" s="26"/>
       <c r="D6" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>264</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
       <c r="C7" s="26"/>
       <c r="D7" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>268</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
       <c r="C8" s="26"/>
       <c r="D8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>272</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="22"/>
       <c r="C9" s="26"/>
       <c r="D9" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>13</v>
@@ -4347,349 +4355,349 @@
       <c r="B10" s="22"/>
       <c r="C10" s="26"/>
       <c r="D10" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>280</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="22"/>
       <c r="C11" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="H11" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>289</v>
+        <v>491</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>290</v>
+        <v>519</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="6" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>293</v>
+        <v>490</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>294</v>
+        <v>518</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="6" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>297</v>
+        <v>497</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>353</v>
+        <v>517</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="6" t="s">
-        <v>298</v>
+        <v>515</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>298</v>
+        <v>484</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>354</v>
+        <v>516</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="6" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>302</v>
+        <v>495</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>303</v>
+        <v>514</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="32.25" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="6" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>494</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>308</v>
+        <v>513</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="32.25" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="6" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>311</v>
+        <v>492</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>312</v>
+        <v>512</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="32.25" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="6" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>493</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>511</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="6" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>489</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>510</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="6" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>323</v>
+        <v>500</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>324</v>
+        <v>509</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="6" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>329</v>
+        <v>508</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="6" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="6" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="6" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="6" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="9" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B28" s="27" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -4700,7 +4708,7 @@
     </row>
     <row r="29" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B29" s="28" t="s">
-        <v>347</v>
+        <v>325</v>
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
@@ -4711,7 +4719,7 @@
     </row>
     <row r="30" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
-        <v>348</v>
+        <v>326</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
@@ -4722,7 +4730,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
-        <v>349</v>
+        <v>327</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -4733,7 +4741,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
@@ -4744,6 +4752,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="B4:B27"/>
     <mergeCell ref="C4:C10"/>
@@ -4754,11 +4767,6 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4768,7 +4776,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF538FB-4517-403F-8115-DDCB136C443E}">
   <dimension ref="B2:H46"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4817,22 +4827,22 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>368</v>
+        <v>476</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>13</v>
@@ -4842,16 +4852,16 @@
       <c r="B5" s="32"/>
       <c r="C5" s="32"/>
       <c r="D5" s="7" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>13</v>
@@ -4861,583 +4871,586 @@
       <c r="B6" s="32"/>
       <c r="C6" s="32"/>
       <c r="D6" s="7" t="s">
-        <v>374</v>
+        <v>478</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="32"/>
       <c r="C7" s="32"/>
       <c r="D7" s="7" t="s">
-        <v>377</v>
+        <v>479</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>482</v>
+        <v>136</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="32"/>
       <c r="C8" s="32"/>
       <c r="D8" s="7" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>379</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>381</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="32"/>
       <c r="C9" s="32"/>
       <c r="D9" s="7" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>490</v>
+        <v>507</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
       <c r="D10" s="7" t="s">
-        <v>386</v>
+        <v>480</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
       <c r="D11" s="7" t="s">
-        <v>389</v>
+        <v>481</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B12" s="32"/>
       <c r="C12" s="32"/>
       <c r="D12" s="7" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>491</v>
+        <v>448</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>492</v>
+        <v>449</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="32"/>
       <c r="C13" s="32"/>
       <c r="D13" s="7" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="32"/>
       <c r="C14" s="32"/>
       <c r="D14" s="7" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="32"/>
       <c r="C15" s="32"/>
       <c r="D15" s="7" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>397</v>
+        <v>366</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="32"/>
       <c r="C16" s="32"/>
       <c r="D16" s="7" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="32"/>
       <c r="C17" s="32"/>
       <c r="D17" s="7" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>371</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
       <c r="D18" s="7" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>403</v>
+        <v>372</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="32"/>
       <c r="C19" s="32"/>
       <c r="D19" s="7" t="s">
-        <v>406</v>
+        <v>375</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>405</v>
+        <v>374</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>493</v>
+        <v>450</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B20" s="32"/>
       <c r="C20" s="32"/>
       <c r="D20" s="7" t="s">
-        <v>408</v>
+        <v>377</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>407</v>
+        <v>376</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>499</v>
+        <v>456</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>500</v>
+        <v>457</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="32"/>
       <c r="C21" s="32"/>
       <c r="D21" s="7" t="s">
-        <v>410</v>
+        <v>379</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>411</v>
+        <v>485</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>485</v>
+        <v>136</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="32"/>
       <c r="C22" s="32"/>
       <c r="D22" s="7" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>496</v>
+        <v>453</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="32"/>
       <c r="C23" s="32"/>
       <c r="D23" s="7" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>497</v>
+        <v>454</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="7" t="s">
-        <v>495</v>
+        <v>452</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>498</v>
+        <v>455</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>477</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="32"/>
       <c r="C25" s="32"/>
       <c r="D25" s="7" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>501</v>
+        <v>458</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B26" s="32"/>
       <c r="C26" s="32"/>
       <c r="D26" s="7" t="s">
-        <v>504</v>
+        <v>461</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>502</v>
+        <v>459</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>503</v>
+        <v>460</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="32"/>
       <c r="C27" s="32"/>
       <c r="D27" s="7" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>496</v>
+        <v>453</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B28" s="32"/>
       <c r="C28" s="32"/>
       <c r="D28" s="7" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>505</v>
+        <v>462</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>506</v>
+        <v>463</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
       <c r="D29" s="7" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>507</v>
+        <v>464</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
       <c r="D30" s="7" t="s">
-        <v>429</v>
+        <v>483</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>508</v>
+        <v>465</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
       <c r="D31" s="7" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>486</v>
+        <v>136</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="105" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
       <c r="D32" s="7" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>487</v>
+        <v>136</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
       <c r="D33" s="7" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>439</v>
+        <v>486</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>505</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
       <c r="D34" s="7" t="s">
-        <v>441</v>
+        <v>487</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>509</v>
+        <v>466</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
       <c r="D35" s="7" t="s">
-        <v>444</v>
+        <v>409</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>443</v>
+        <v>408</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>520</v>
+        <v>475</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
       <c r="D36" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>13</v>
@@ -5447,190 +5460,190 @@
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
       <c r="D37" s="7" t="s">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>449</v>
+        <v>413</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>519</v>
+        <v>474</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
       <c r="D38" s="7" t="s">
-        <v>453</v>
+        <v>417</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>452</v>
+        <v>416</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>510</v>
+        <v>467</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
       <c r="D39" s="7" t="s">
-        <v>455</v>
+        <v>419</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>456</v>
+        <v>420</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>511</v>
+        <v>468</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
       <c r="D40" s="7" t="s">
-        <v>458</v>
+        <v>422</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>457</v>
+        <v>421</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>512</v>
+        <v>469</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
       <c r="D41" s="7" t="s">
-        <v>460</v>
+        <v>502</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>461</v>
+        <v>424</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
       <c r="D42" s="7" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>462</v>
+        <v>425</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B43" s="32"/>
       <c r="C43" s="32"/>
       <c r="D43" s="7" t="s">
-        <v>466</v>
+        <v>501</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
       <c r="D44" s="7" t="s">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>514</v>
+        <v>471</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
       <c r="D45" s="7" t="s">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>471</v>
+        <v>433</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>515</v>
+        <v>472</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
       <c r="D46" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="E46" s="20" t="s">
-        <v>472</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>516</v>
-      </c>
       <c r="H46" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/SSGD v2.0 codebook.xlsx
+++ b/documentation/SSGD v2.0 codebook.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omar\World Bank\SSG database\paper\figures_tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omar\World Bank\SSGD v2.0 GitHub\Social-Sustainability-Global-Database-v2.0\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B034F253-4ED6-4CC9-8DC7-A6CD352235B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDF48BA-1CDB-4726-93CD-D9DFCDD04CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{39A305B4-F82F-4338-8C8F-A8E3E187CC91}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{39A305B4-F82F-4338-8C8F-A8E3E187CC91}"/>
   </bookViews>
   <sheets>
     <sheet name="Social Inclusion" sheetId="1" r:id="rId1"/>
     <sheet name="Resilience" sheetId="2" r:id="rId2"/>
     <sheet name="Social Cohesion" sheetId="3" r:id="rId3"/>
     <sheet name="Process Legitimacy" sheetId="4" r:id="rId4"/>
-    <sheet name="External Variables" sheetId="5" r:id="rId5"/>
+    <sheet name="Development Indicators" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="522">
   <si>
     <t>Dimension</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>The unemployment rate is equal to the unemployed population w.r.t the labor force.</t>
-  </si>
-  <si>
-    <t>% of ppl that work and are self-employed</t>
   </si>
   <si>
     <t>sel</t>
@@ -113,9 +110,6 @@
 5 = Other workers not classifiable by status</t>
   </si>
   <si>
-    <t>% of ppl that work and have a contract</t>
-  </si>
-  <si>
     <t>con</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
 2 = No</t>
   </si>
   <si>
-    <t>% of ppl that owns a bank account</t>
-  </si>
-  <si>
     <t>ownban</t>
   </si>
   <si>
@@ -137,9 +128,6 @@
   </si>
   <si>
     <t>Access to Services</t>
-  </si>
-  <si>
-    <t>% of hhs that have access to water</t>
   </si>
   <si>
     <t>wat</t>
@@ -153,9 +141,6 @@
 1 = Yes</t>
   </si>
   <si>
-    <t>% of hhs that have access to sanitation</t>
-  </si>
-  <si>
     <t>san</t>
   </si>
   <si>
@@ -167,9 +152,6 @@
 1 = Yes</t>
   </si>
   <si>
-    <t>% of hhs that have access to electricity</t>
-  </si>
-  <si>
     <t>ele</t>
   </si>
   <si>
@@ -179,9 +161,6 @@
     <t>GMD: Uses the harmonised variable "electricity" which has 2 values
 0 = No
 1 = Yes</t>
-  </si>
-  <si>
-    <t>% of hhs that have access to internet</t>
   </si>
   <si>
     <t>int</t>
@@ -195,9 +174,6 @@
 2 = Accessible outside the house
 3 = Either
 4 = No internet</t>
-  </si>
-  <si>
-    <t>% of ppl that uses the Internet</t>
   </si>
   <si>
     <t>intuse</t>
@@ -237,9 +213,6 @@
     <t>Human Capital Services</t>
   </si>
   <si>
-    <t>% of ppl that are attending primary school</t>
-  </si>
-  <si>
     <t>prienr</t>
   </si>
   <si>
@@ -251,9 +224,6 @@
 1 = Yes</t>
   </si>
   <si>
-    <t>% of ppl that completed primary education</t>
-  </si>
-  <si>
     <t>pricom</t>
   </si>
   <si>
@@ -265,16 +235,10 @@
 1 = Yes</t>
   </si>
   <si>
-    <t>% of ppl that are attending secondary school</t>
-  </si>
-  <si>
     <t>secenr</t>
   </si>
   <si>
     <t>Percentage of population (teens) that are attending secondary school. It is calculated for those teen aged 13 to 18 years old.</t>
-  </si>
-  <si>
-    <t>% of ppl with health insurance</t>
   </si>
   <si>
     <t>hea</t>
@@ -288,9 +252,6 @@
 1 = Yes</t>
   </si>
   <si>
-    <t>% of ppl that have social security</t>
-  </si>
-  <si>
     <t>socsec</t>
   </si>
   <si>
@@ -374,9 +335,6 @@
     <t>Resilience</t>
   </si>
   <si>
-    <t>% of hhs that own a computer</t>
-  </si>
-  <si>
     <t>com</t>
   </si>
   <si>
@@ -388,9 +346,6 @@
 1 = Yes</t>
   </si>
   <si>
-    <t>% of hhs that own a cellphone</t>
-  </si>
-  <si>
     <t>cel</t>
   </si>
   <si>
@@ -402,9 +357,6 @@
 1 = Yes</t>
   </si>
   <si>
-    <t>% of hhs that have a TV</t>
-  </si>
-  <si>
     <t>tel</t>
   </si>
   <si>
@@ -416,9 +368,6 @@
 1 = Yes</t>
   </si>
   <si>
-    <t>% of hhs that have a radio</t>
-  </si>
-  <si>
     <t>rad</t>
   </si>
   <si>
@@ -430,9 +379,6 @@
 1 = Yes</t>
   </si>
   <si>
-    <t>% of hhs that have a washing machine</t>
-  </si>
-  <si>
     <t>was</t>
   </si>
   <si>
@@ -444,9 +390,6 @@
 1 = Yes</t>
   </si>
   <si>
-    <t>% of hhs that have a sewing machine</t>
-  </si>
-  <si>
     <t>sew</t>
   </si>
   <si>
@@ -458,9 +401,6 @@
 1 = Yes</t>
   </si>
   <si>
-    <t>% of hhs that have a motorcycle</t>
-  </si>
-  <si>
     <t>mot</t>
   </si>
   <si>
@@ -472,9 +412,6 @@
 1 = Yes</t>
   </si>
   <si>
-    <t>% of hhs that have a fridge</t>
-  </si>
-  <si>
     <t>fri</t>
   </si>
   <si>
@@ -486,9 +423,6 @@
 1 = Yes</t>
   </si>
   <si>
-    <t>% of hhs that have a car</t>
-  </si>
-  <si>
     <t>car</t>
   </si>
   <si>
@@ -500,9 +434,6 @@
 1 = Yes</t>
   </si>
   <si>
-    <t>% of hhs that own their land</t>
-  </si>
-  <si>
     <t>ownlan</t>
   </si>
   <si>
@@ -523,9 +454,6 @@
     <t>Derived</t>
   </si>
   <si>
-    <t>% of ppl that receive government transfers</t>
-  </si>
-  <si>
     <t>govtra</t>
   </si>
   <si>
@@ -538,9 +466,6 @@
   </si>
   <si>
     <t>LB</t>
-  </si>
-  <si>
-    <t>% of ppl that receives remittances</t>
   </si>
   <si>
     <t>rem</t>
@@ -557,9 +482,6 @@
   </si>
   <si>
     <t>AF</t>
-  </si>
-  <si>
-    <t>% of ppl that saves some money</t>
   </si>
   <si>
     <t>savmon</t>
@@ -594,9 +516,6 @@
     <t>AB, ASB, LB, WVS</t>
   </si>
   <si>
-    <t>% of ppl that has gone without enough food to eat in the past year</t>
-  </si>
-  <si>
     <t>enofoo</t>
   </si>
   <si>
@@ -624,9 +543,6 @@
     <t>AF, LB, WVS</t>
   </si>
   <si>
-    <t>% of hhs that have more than one person working for pay</t>
-  </si>
-  <si>
     <t>mortha</t>
   </si>
   <si>
@@ -634,9 +550,6 @@
   </si>
   <si>
     <t>Social Cohesion</t>
-  </si>
-  <si>
-    <t>% of ppl that says that most ppl can be trusted</t>
   </si>
   <si>
     <t>trupeo</t>
@@ -662,9 +575,6 @@
     <t>AF, ASB, LB, WVS</t>
   </si>
   <si>
-    <t>% of ppl that would not like to have homosexuals as neighbors</t>
-  </si>
-  <si>
     <t>homnei</t>
   </si>
   <si>
@@ -683,9 +593,6 @@
   </si>
   <si>
     <t>AF, WVS</t>
-  </si>
-  <si>
-    <t>% of ppl that says they have confidence in the Government</t>
   </si>
   <si>
     <t>congov</t>
@@ -726,9 +633,6 @@
     <t>AB, AF, ASB, EVS, LB, WVS</t>
   </si>
   <si>
-    <t>% of ppl that says they have confidence in the Police</t>
-  </si>
-  <si>
     <t>conpol</t>
   </si>
   <si>
@@ -767,9 +671,6 @@
     <t>AB, AF, ASB, LB, WVS</t>
   </si>
   <si>
-    <t>% of ppl that says they have confidence in the elections</t>
-  </si>
-  <si>
     <t>conele</t>
   </si>
   <si>
@@ -798,9 +699,6 @@
 2 = Quite a lot
 3 = Not very much
 4 = None at all</t>
-  </si>
-  <si>
-    <t>% of ppl that says they have confidence in the Justice System</t>
   </si>
   <si>
     <t>conjus</t>
@@ -838,9 +736,6 @@
 4 = None at all</t>
   </si>
   <si>
-    <t>% of ppl that feels insecure living in their neighborhood / town / village</t>
-  </si>
-  <si>
     <t>insnei</t>
   </si>
   <si>
@@ -870,9 +765,6 @@
 4 = Not at all secure</t>
   </si>
   <si>
-    <t>% of ppl that has often or sometimes felt unsafe from crime in their own homes in the past year</t>
-  </si>
-  <si>
     <t>unshom</t>
   </si>
   <si>
@@ -892,9 +784,6 @@
 4 = Never</t>
   </si>
   <si>
-    <t>% of ppl that was victim of a crime in the past year</t>
-  </si>
-  <si>
     <t>viccri</t>
   </si>
   <si>
@@ -914,9 +803,6 @@
     <t>LB, WVS</t>
   </si>
   <si>
-    <t>% of ppl that says racist behavior is very or quite frequent in their neighborhood</t>
-  </si>
-  <si>
     <t>racbeh</t>
   </si>
   <si>
@@ -931,9 +817,6 @@
   </si>
   <si>
     <t>WVS</t>
-  </si>
-  <si>
-    <t>% of ppl that voted in the last national elections</t>
   </si>
   <si>
     <t>vot</t>
@@ -958,9 +841,6 @@
   </si>
   <si>
     <t>AF, ASB, WVS</t>
-  </si>
-  <si>
-    <t>% of ppl that has ever attended a demonstration or protest march</t>
   </si>
   <si>
     <t>attdem</t>
@@ -994,9 +874,6 @@
     <t>AB, AF, ASB, EVS, WVS</t>
   </si>
   <si>
-    <t>% of ppl that agrees they are free to express what they think</t>
-  </si>
-  <si>
     <t>frespe</t>
   </si>
   <si>
@@ -1028,9 +905,6 @@
     <t>AB, AF, ASB, LB</t>
   </si>
   <si>
-    <t>% of ppl that agrees they are free to join any organization they like without fear</t>
-  </si>
-  <si>
     <t>frejoi</t>
   </si>
   <si>
@@ -1054,9 +928,6 @@
 4 = Strongly disagree</t>
   </si>
   <si>
-    <t>% of ppl that got together with others to try to solve local problems</t>
-  </si>
-  <si>
     <t>solpro</t>
   </si>
   <si>
@@ -1074,9 +945,6 @@
     <t>ASB</t>
   </si>
   <si>
-    <t>% of ppl that are active members of organizations</t>
-  </si>
-  <si>
     <t>actmem</t>
   </si>
   <si>
@@ -1091,9 +959,6 @@
   </si>
   <si>
     <t>ASB, WVS</t>
-  </si>
-  <si>
-    <t>% of ppl that participates in voluntary associations, organizations or community groups</t>
   </si>
   <si>
     <t>volass</t>
@@ -1160,9 +1025,6 @@
     <t>WDI: Percentage of women in the parliament</t>
   </si>
   <si>
-    <t>% of ppl that agrees it is a problem if women earn more than their husbands</t>
-  </si>
-  <si>
     <t>prowom</t>
   </si>
   <si>
@@ -1177,9 +1039,6 @@
 5 = Disagree strongly</t>
   </si>
   <si>
-    <t>% of ppl that agrees that when jobs are scarce, men should have more right to a job than women</t>
-  </si>
-  <si>
     <t>menjob</t>
   </si>
   <si>
@@ -1194,9 +1053,6 @@
 5 = Disagree strongly</t>
   </si>
   <si>
-    <t>% of women that are the chief earner in their hhs</t>
-  </si>
-  <si>
     <t>chiear</t>
   </si>
   <si>
@@ -1206,9 +1062,6 @@
     <t>LB: Are you the person to make the largest contribution to your family’s income? Are you head of your household?
 1 = Yes
 2 = No</t>
-  </si>
-  <si>
-    <t>% of ppl that agrees or strongly agrees that men are better political leaders than women</t>
   </si>
   <si>
     <t>menbet</t>
@@ -1230,9 +1083,6 @@
   </si>
   <si>
     <t>AB, WVS</t>
-  </si>
-  <si>
-    <t>% of women with 25 years or older that finished secondary school</t>
   </si>
   <si>
     <t>femsec</t>
@@ -1334,40 +1184,10 @@
     <t>econsocrights</t>
   </si>
   <si>
-    <r>
-      <t>Life and security are effectively guaranteed</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>a</t>
-    </r>
-  </si>
-  <si>
     <t>riggua</t>
   </si>
   <si>
     <t>WJP</t>
-  </si>
-  <si>
-    <r>
-      <t>Government powers are limited by the judiciary</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>a</t>
-    </r>
   </si>
   <si>
     <t>powlim</t>
@@ -1391,55 +1211,10 @@
     <t>nodis</t>
   </si>
   <si>
-    <r>
-      <t>Government regulations are applied and enforced without improper influence</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>a</t>
-    </r>
-  </si>
-  <si>
     <t>govreg</t>
   </si>
   <si>
-    <r>
-      <t>People can access and afford civil justice</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>a</t>
-    </r>
-  </si>
-  <si>
     <t>accjus</t>
-  </si>
-  <si>
-    <r>
-      <t>Civic space score</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Garamond"/>
-        <family val="1"/>
-      </rPr>
-      <t>a</t>
-    </r>
   </si>
   <si>
     <t>civspa</t>
@@ -1759,283 +1534,151 @@
     <t>FINDEX</t>
   </si>
   <si>
-    <t>External variable</t>
-  </si>
-  <si>
-    <t>ex_ageg1</t>
-  </si>
-  <si>
     <t>Share of population aged 15 to 29 years old</t>
   </si>
   <si>
-    <t>ex_ageg2</t>
-  </si>
-  <si>
     <t>Share of population aged 30 to 59 years old</t>
   </si>
   <si>
-    <t>ex_ageg3</t>
-  </si>
-  <si>
     <t>Share of population aged 60+ years old</t>
   </si>
   <si>
-    <t>ex_avega2</t>
-  </si>
-  <si>
-    <t>ex_co2emissions</t>
-  </si>
-  <si>
     <t>CO2 emissions</t>
   </si>
   <si>
     <t>CO2 emissions in metric tons per capita</t>
   </si>
   <si>
-    <t>ex_coolingdays</t>
-  </si>
-  <si>
     <t>Cooling degree days</t>
   </si>
   <si>
     <t>Number of degrees that a day's average temperature is above 18.3°C</t>
   </si>
   <si>
-    <t>ex_disability1</t>
-  </si>
-  <si>
     <t>Percentage of people who experienced discrimination based on disability</t>
   </si>
   <si>
-    <t>ex_disability2</t>
-  </si>
-  <si>
     <t>Percentage of people who have at least one household member living with disabilities</t>
   </si>
   <si>
-    <t>ex_energyint</t>
-  </si>
-  <si>
     <t>Energy intensity level of primary energy</t>
   </si>
   <si>
-    <t>ex_eqocivil</t>
-  </si>
-  <si>
     <t>EQOSOGI: Civil and political inclusion score</t>
   </si>
   <si>
-    <t>ex_eqocrimi</t>
-  </si>
-  <si>
     <t>EQOSOGI: Criminalization and SOGI score</t>
   </si>
   <si>
-    <t>ex_eqoinclu</t>
-  </si>
-  <si>
     <t>EQOSOGI: Access to inclusive education score</t>
   </si>
   <si>
-    <t>ex_eqolabor</t>
-  </si>
-  <si>
     <t>EQOSOGI: Access to labor market score</t>
   </si>
   <si>
-    <t>ex_eqoprote</t>
-  </si>
-  <si>
     <t>EQOSOGI: Protection from hate crimes score</t>
   </si>
   <si>
-    <t>ex_eqopubli</t>
-  </si>
-  <si>
     <t>EQOSOGI: Access to public services and social protections score</t>
   </si>
   <si>
-    <t>ex_ferrat</t>
-  </si>
-  <si>
     <t>Fertility rate</t>
   </si>
   <si>
-    <t>ex_forestarea</t>
-  </si>
-  <si>
     <t>Forest area (% of land area)</t>
   </si>
   <si>
-    <t>ex_gaphci</t>
-  </si>
-  <si>
     <t>Inequality of opportunities, using HCI</t>
   </si>
   <si>
-    <t>ex_gdpppc</t>
-  </si>
-  <si>
     <t>GDP per capita, PPP</t>
   </si>
   <si>
     <t>GDP per capita, PPP (constant 2017 international $)</t>
   </si>
   <si>
-    <t>ex_gini</t>
-  </si>
-  <si>
     <t>Gini index (World Bank estimate)</t>
   </si>
   <si>
-    <t>ex_hdi</t>
-  </si>
-  <si>
-    <t>ex_heatingdays</t>
-  </si>
-  <si>
     <t>Heating degree days</t>
   </si>
   <si>
     <t>Number of degrees that a day's average temperature is below 18.3°C</t>
   </si>
   <si>
-    <t>ex_humcap</t>
-  </si>
-  <si>
-    <t>ex_loggdp</t>
-  </si>
-  <si>
     <t>Log of GDP per capita, PPP</t>
   </si>
   <si>
-    <t>ex_mulpov</t>
-  </si>
-  <si>
     <t>Multidimensional poverty headcount ratio</t>
   </si>
   <si>
-    <t>ex_povnat</t>
-  </si>
-  <si>
     <t>Poverty headcount ratio at national poverty lines</t>
   </si>
   <si>
-    <t>ex_sex</t>
-  </si>
-  <si>
     <t>Share of male population</t>
   </si>
   <si>
-    <t>ex_shapp</t>
-  </si>
-  <si>
     <t>Shared prosperity premium</t>
   </si>
   <si>
     <t>The difference between the annualized growth in the average consumption or income per capita of the poorest 40 percent and the entire population</t>
   </si>
   <si>
-    <t>ex_shapro</t>
-  </si>
-  <si>
     <t>Shared prosperity</t>
   </si>
   <si>
     <t>The annualized growth rate in the average consumption or income per capita of the poorest 40 percent of the population</t>
   </si>
   <si>
-    <t>ex_treeloss</t>
-  </si>
-  <si>
     <t>Tree cover loss</t>
   </si>
   <si>
-    <t>ex_urbpop</t>
-  </si>
-  <si>
     <t>Share of population living in urban areas</t>
   </si>
   <si>
-    <t>ex_waterstress</t>
-  </si>
-  <si>
     <t>Level of water stress</t>
   </si>
   <si>
     <t>Freshwater withdrawal as a proportion of available freshwater resources</t>
   </si>
   <si>
-    <t>ex_youth</t>
-  </si>
-  <si>
     <t>Share of population aged 15 to 24 years old (w.r.t. 15+ years old population)</t>
   </si>
   <si>
-    <t>ex_growthgdppc</t>
-  </si>
-  <si>
     <t>GDP growth (annual %)</t>
   </si>
   <si>
     <t xml:space="preserve">	Annual percentage growth rate of GDP at market prices based on constant local currency. Aggregates are based on constant 2015 prices, expressed in U.S. dollars.</t>
   </si>
   <si>
-    <t>ex_indinternet</t>
-  </si>
-  <si>
     <t>Individuals using the Internet (% of population)</t>
   </si>
   <si>
-    <t>ex_netmigration</t>
-  </si>
-  <si>
     <t>Net migration</t>
   </si>
   <si>
     <t>Net migration is the number of immigrants minus the number of emigrants, including citizens and noncitizens, for the five-year period.</t>
   </si>
   <si>
-    <t>ex_patentapp</t>
-  </si>
-  <si>
     <t>Patent applications, residents</t>
   </si>
   <si>
-    <t>ex_polstab</t>
-  </si>
-  <si>
     <t xml:space="preserve">	Political Stability and Absence of Violence/Terrorism measures perceptions of the likelihood of political instability and/or politically-motivated violence, including terrorism.</t>
   </si>
   <si>
-    <t>ex_ratiofem</t>
-  </si>
-  <si>
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Ratio of female to male labor force participation rate is calculated by dividing female labor force participation rate by male labor force participation rate and multiplying by 100.</t>
   </si>
   <si>
-    <t>ex_regulqua</t>
-  </si>
-  <si>
-    <t>ex_researchexp</t>
-  </si>
-  <si>
     <t>Research and development expenditure (% of GDP)</t>
   </si>
   <si>
-    <t>ex_schoolgpi</t>
-  </si>
-  <si>
     <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
     <t>This indicator is calculated by dividing female gross enrollment ratio in primary and secondary education by male gross enrollment ratio in primary and secondary education.</t>
-  </si>
-  <si>
-    <t>ex_unmetcontr</t>
   </si>
   <si>
     <t>Unmet need for contraception (% of married women ages 15-49)</t>
@@ -2170,24 +1813,9 @@
     <t>ESG: Level of water stress</t>
   </si>
   <si>
-    <t>% of pop aged 15-29</t>
-  </si>
-  <si>
-    <t>% of pop aged 30-59</t>
-  </si>
-  <si>
-    <t>% of pop aged 60+</t>
-  </si>
-  <si>
     <t>Inequality of opportunities index</t>
   </si>
   <si>
-    <t>% of pop who experienced discrimination based on disability</t>
-  </si>
-  <si>
-    <t>% of pop who have at least one household member living with disabilities</t>
-  </si>
-  <si>
     <t>The Human Development Index (HDI) is a summary measure of average achievement in key dimensions of human development: a long and healthy life, being knowledgeable and having a decent standard of living. The HDI is the geometric mean of normalized indices for each of the three dimensions.</t>
   </si>
   <si>
@@ -2206,9 +1834,6 @@
     <t>% of urban population</t>
   </si>
   <si>
-    <t>% of pop aged 15-24 (w.r.t 15+ pop)</t>
-  </si>
-  <si>
     <t>This indicator measures the accessibility and affordability of civil courts, including whether people are aware of available remedies; can access and afford legal advice and representation; and can access the court system without incurring unreasonable fees, encountering unreasonable procedural hurdles, or experiencing physical or linguistic barriers.</t>
   </si>
   <si>
@@ -2245,12 +1870,6 @@
     <t>The Civic Space Score measures the state of civic freedoms in a country, specifically evaluating the conditions for civil society based on three fundamental dimensions: freedom of association, freedom of peaceful assembly, and freedom of expression. This score helps to assess whether citizens are able to engage and communicate without undue interference or repression by the state.</t>
   </si>
   <si>
-    <t>Regulatory Quality: Estimate</t>
-  </si>
-  <si>
-    <t>Political Stability and Absence of Violence/Terrorism: Estimate</t>
-  </si>
-  <si>
     <t>WGI: Regulatory Quality estimate</t>
   </si>
   <si>
@@ -2303,6 +1922,390 @@
   </si>
   <si>
     <t>WGI: Rule of law</t>
+  </si>
+  <si>
+    <t>di_ageg1</t>
+  </si>
+  <si>
+    <t>di_ageg2</t>
+  </si>
+  <si>
+    <t>di_ageg3</t>
+  </si>
+  <si>
+    <t>di_avega2</t>
+  </si>
+  <si>
+    <t>di_co2emissions</t>
+  </si>
+  <si>
+    <t>di_coolingdays</t>
+  </si>
+  <si>
+    <t>di_disability1</t>
+  </si>
+  <si>
+    <t>di_disability2</t>
+  </si>
+  <si>
+    <t>di_energyint</t>
+  </si>
+  <si>
+    <t>di_eqocivil</t>
+  </si>
+  <si>
+    <t>di_eqocrimi</t>
+  </si>
+  <si>
+    <t>di_eqoinclu</t>
+  </si>
+  <si>
+    <t>di_eqolabor</t>
+  </si>
+  <si>
+    <t>di_eqoprote</t>
+  </si>
+  <si>
+    <t>di_eqopubli</t>
+  </si>
+  <si>
+    <t>di_ferrat</t>
+  </si>
+  <si>
+    <t>di_forestarea</t>
+  </si>
+  <si>
+    <t>di_gaphci</t>
+  </si>
+  <si>
+    <t>di_gdpppc</t>
+  </si>
+  <si>
+    <t>di_gini</t>
+  </si>
+  <si>
+    <t>di_hdi</t>
+  </si>
+  <si>
+    <t>di_heatingdays</t>
+  </si>
+  <si>
+    <t>di_humcap</t>
+  </si>
+  <si>
+    <t>di_loggdp</t>
+  </si>
+  <si>
+    <t>di_mulpov</t>
+  </si>
+  <si>
+    <t>di_povnat</t>
+  </si>
+  <si>
+    <t>di_sex</t>
+  </si>
+  <si>
+    <t>di_shapp</t>
+  </si>
+  <si>
+    <t>di_shapro</t>
+  </si>
+  <si>
+    <t>di_treeloss</t>
+  </si>
+  <si>
+    <t>di_urbpop</t>
+  </si>
+  <si>
+    <t>di_waterstress</t>
+  </si>
+  <si>
+    <t>di_youth</t>
+  </si>
+  <si>
+    <t>di_growthgdppc</t>
+  </si>
+  <si>
+    <t>di_indinternet</t>
+  </si>
+  <si>
+    <t>di_netmigration</t>
+  </si>
+  <si>
+    <t>di_patentapp</t>
+  </si>
+  <si>
+    <t>di_polstab</t>
+  </si>
+  <si>
+    <t>di_ratiofem</t>
+  </si>
+  <si>
+    <t>di_regulqua</t>
+  </si>
+  <si>
+    <t>di_researchexp</t>
+  </si>
+  <si>
+    <t>di_schoolgpi</t>
+  </si>
+  <si>
+    <t>di_unmetcontr</t>
+  </si>
+  <si>
+    <t>Development Indicators</t>
+  </si>
+  <si>
+    <t>% of population who work and are self-employed</t>
+  </si>
+  <si>
+    <t>% of population that works with a contract</t>
+  </si>
+  <si>
+    <t>% of population who own a bank account</t>
+  </si>
+  <si>
+    <t>% of households that have water</t>
+  </si>
+  <si>
+    <t>% of households that have access to improved sanitation</t>
+  </si>
+  <si>
+    <t>% of households that have electricity</t>
+  </si>
+  <si>
+    <t>% of households that have internet</t>
+  </si>
+  <si>
+    <t>% of population who use the internet</t>
+  </si>
+  <si>
+    <t>% of population attending primary school</t>
+  </si>
+  <si>
+    <t>% of population with completed primary education</t>
+  </si>
+  <si>
+    <t>% of population attending secondary school</t>
+  </si>
+  <si>
+    <t>% of population with health insurance</t>
+  </si>
+  <si>
+    <t>% of population that has social security</t>
+  </si>
+  <si>
+    <t>% of households that have a computer</t>
+  </si>
+  <si>
+    <t>% of households that have a cellphone</t>
+  </si>
+  <si>
+    <t>% of households that have a TV</t>
+  </si>
+  <si>
+    <t>% of households that have a radio</t>
+  </si>
+  <si>
+    <t>% of households that have a washing machine</t>
+  </si>
+  <si>
+    <t>% of households that have a sewing machine</t>
+  </si>
+  <si>
+    <t>% of households that have a motorcycle</t>
+  </si>
+  <si>
+    <t>% of households that have a fridge</t>
+  </si>
+  <si>
+    <t>% of households that have a car</t>
+  </si>
+  <si>
+    <t>% of households that own land</t>
+  </si>
+  <si>
+    <t>% of population who receive government transfers</t>
+  </si>
+  <si>
+    <t>% of population that receives remittances</t>
+  </si>
+  <si>
+    <t>% of population that saves money</t>
+  </si>
+  <si>
+    <t>% of population who have gone without enough food</t>
+  </si>
+  <si>
+    <t>% of households that have more than one person working for pay</t>
+  </si>
+  <si>
+    <t>% of population who think most people can be trusted</t>
+  </si>
+  <si>
+    <t>% of population who do not like homosexuals as neighbors</t>
+  </si>
+  <si>
+    <t>% of population with confidence in government</t>
+  </si>
+  <si>
+    <t>% of population with confidence in the police</t>
+  </si>
+  <si>
+    <t>% of population with confidence in elections</t>
+  </si>
+  <si>
+    <t>% of population with confidence in the justice system</t>
+  </si>
+  <si>
+    <t>% of population who feels insecure living in their neighborhood</t>
+  </si>
+  <si>
+    <t>% of population who feel unsafe from crime at home</t>
+  </si>
+  <si>
+    <t>% of population who were victims of crime</t>
+  </si>
+  <si>
+    <t>% of population who say that racist behavior is frequent in their neighborhood</t>
+  </si>
+  <si>
+    <t>% of population who voted</t>
+  </si>
+  <si>
+    <t>% of population who attended a demonstration</t>
+  </si>
+  <si>
+    <t>% of population who can freely express what they think</t>
+  </si>
+  <si>
+    <t>% of population that agrees they are free to join any organization they like without fear</t>
+  </si>
+  <si>
+    <t>% of population who got together to try to solve problems</t>
+  </si>
+  <si>
+    <t>% of population who are active members in an organization</t>
+  </si>
+  <si>
+    <t>% of population who participate in a voluntary association</t>
+  </si>
+  <si>
+    <t>Number of fatalities due to violence</t>
+  </si>
+  <si>
+    <t>% of population who think it is a problem if women earn more than men</t>
+  </si>
+  <si>
+    <t>% of population who think men have more right to job than women</t>
+  </si>
+  <si>
+    <t>% of women who are the chief earner in their household</t>
+  </si>
+  <si>
+    <t>% of population who think men are better political leaders than women</t>
+  </si>
+  <si>
+    <t>% of 25+ year-old women with at least secondary education</t>
+  </si>
+  <si>
+    <r>
+      <t>Life and security guaranteed</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Government powers limited by the judiciary</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Government regulations without improper influence</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Access to civil justice</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Civic space index</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Garamond"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <t>% of population aged 15-29</t>
+  </si>
+  <si>
+    <t>% of population aged 30-59</t>
+  </si>
+  <si>
+    <t>% of population aged 60+</t>
+  </si>
+  <si>
+    <t>% of population who experienced discrimination based on disability</t>
+  </si>
+  <si>
+    <t>% of population who have at least one household member living with disabilities</t>
+  </si>
+  <si>
+    <t>% of population aged 15-24 relative to those aged 15+</t>
+  </si>
+  <si>
+    <t>Political Stability and Absence of Violence/Terrorism</t>
+  </si>
+  <si>
+    <t>Regulatory Quality</t>
   </si>
 </sst>
 </file>
@@ -2797,8 +2800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6076DEB1-9DD4-4009-8CB4-9AD827C47535}">
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H28"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2892,16 +2895,16 @@
       <c r="B6" s="22"/>
       <c r="C6" s="26"/>
       <c r="D6" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>13</v>
@@ -2911,16 +2914,16 @@
       <c r="B7" s="22"/>
       <c r="C7" s="26"/>
       <c r="D7" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="G7" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>13</v>
@@ -2930,37 +2933,37 @@
       <c r="B8" s="22"/>
       <c r="C8" s="26"/>
       <c r="D8" s="5" t="s">
-        <v>25</v>
+        <v>460</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>329</v>
+        <v>274</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>341</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="22"/>
       <c r="C9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>13</v>
@@ -2970,16 +2973,16 @@
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="6" t="s">
-        <v>33</v>
+        <v>462</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>13</v>
@@ -2989,16 +2992,16 @@
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="6" t="s">
-        <v>37</v>
+        <v>463</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>13</v>
@@ -3008,16 +3011,16 @@
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="6" t="s">
-        <v>41</v>
+        <v>464</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>13</v>
@@ -3027,37 +3030,37 @@
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="6" t="s">
-        <v>45</v>
+        <v>465</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="26" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>51</v>
+        <v>466</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>13</v>
@@ -3067,16 +3070,16 @@
       <c r="B15" s="22"/>
       <c r="C15" s="26"/>
       <c r="D15" s="5" t="s">
-        <v>55</v>
+        <v>467</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>13</v>
@@ -3086,16 +3089,16 @@
       <c r="B16" s="22"/>
       <c r="C16" s="26"/>
       <c r="D16" s="5" t="s">
-        <v>59</v>
+        <v>468</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>13</v>
@@ -3105,16 +3108,16 @@
       <c r="B17" s="22"/>
       <c r="C17" s="26"/>
       <c r="D17" s="5" t="s">
-        <v>62</v>
+        <v>469</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>13</v>
@@ -3124,16 +3127,16 @@
       <c r="B18" s="22"/>
       <c r="C18" s="26"/>
       <c r="D18" s="5" t="s">
-        <v>66</v>
+        <v>470</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>13</v>
@@ -3142,193 +3145,193 @@
     <row r="19" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="22" t="s">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>498</v>
+        <v>393</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>499</v>
+        <v>394</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="6" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="6" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="6" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="6" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="6" t="s">
-        <v>337</v>
+        <v>282</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="6" t="s">
-        <v>338</v>
+        <v>283</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="6" t="s">
-        <v>339</v>
+        <v>284</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="6" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B28" s="23"/>
       <c r="C28" s="23"/>
       <c r="D28" s="9" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3358,7 @@
   <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3405,22 +3408,22 @@
     </row>
     <row r="4" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>94</v>
+        <v>471</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>13</v>
@@ -3430,16 +3433,16 @@
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="6" t="s">
-        <v>98</v>
+        <v>472</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>13</v>
@@ -3449,16 +3452,16 @@
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="6" t="s">
-        <v>102</v>
+        <v>473</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>13</v>
@@ -3468,16 +3471,16 @@
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="6" t="s">
-        <v>106</v>
+        <v>474</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>13</v>
@@ -3487,16 +3490,16 @@
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="6" t="s">
-        <v>110</v>
+        <v>475</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>13</v>
@@ -3506,16 +3509,16 @@
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="6" t="s">
-        <v>114</v>
+        <v>476</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>13</v>
@@ -3525,16 +3528,16 @@
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="6" t="s">
-        <v>118</v>
+        <v>477</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>13</v>
@@ -3544,16 +3547,16 @@
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="6" t="s">
-        <v>122</v>
+        <v>478</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>13</v>
@@ -3563,16 +3566,16 @@
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="6" t="s">
-        <v>126</v>
+        <v>479</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>13</v>
@@ -3582,16 +3585,16 @@
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="6" t="s">
-        <v>130</v>
+        <v>480</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>13</v>
@@ -3601,16 +3604,16 @@
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="6" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>13</v>
@@ -3620,92 +3623,92 @@
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="6" t="s">
-        <v>137</v>
+        <v>481</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="6" t="s">
-        <v>142</v>
+        <v>482</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="6" t="s">
-        <v>147</v>
+        <v>483</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="285" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="6" t="s">
-        <v>152</v>
+        <v>484</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="9" t="s">
-        <v>157</v>
+        <v>485</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>13</v>
@@ -3731,8 +3734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A999D4-8369-47DC-9575-F397AA4AC9D4}">
   <dimension ref="B2:H23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3782,386 +3785,386 @@
     </row>
     <row r="4" spans="2:8" ht="300" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>161</v>
+        <v>486</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="6" t="s">
-        <v>166</v>
+        <v>487</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B6" s="22"/>
       <c r="C6" s="22"/>
       <c r="D6" s="6" t="s">
-        <v>171</v>
+        <v>488</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
       <c r="C7" s="22"/>
       <c r="D7" s="6" t="s">
-        <v>176</v>
+        <v>489</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
       <c r="C8" s="22"/>
       <c r="D8" s="6" t="s">
-        <v>181</v>
+        <v>490</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B9" s="22"/>
       <c r="C9" s="22"/>
       <c r="D9" s="6" t="s">
-        <v>185</v>
+        <v>491</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="360" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
       <c r="C10" s="22"/>
       <c r="D10" s="6" t="s">
-        <v>189</v>
+        <v>492</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="195" x14ac:dyDescent="0.25">
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
       <c r="D11" s="6" t="s">
-        <v>193</v>
+        <v>493</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="150" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="6" t="s">
-        <v>197</v>
+        <v>494</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="90" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="6" t="s">
-        <v>202</v>
+        <v>495</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="255" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="6" t="s">
-        <v>207</v>
+        <v>496</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="6" t="s">
-        <v>212</v>
+        <v>497</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="6" t="s">
-        <v>217</v>
+        <v>498</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="330" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="6" t="s">
-        <v>222</v>
+        <v>499</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="180" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="6" t="s">
-        <v>226</v>
+        <v>500</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>230</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="6" t="s">
-        <v>231</v>
+        <v>501</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>232</v>
+        <v>188</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>235</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="165" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="6" t="s">
-        <v>236</v>
+        <v>502</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>239</v>
+        <v>194</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>240</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="6" t="s">
-        <v>330</v>
+        <v>503</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="6" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="23"/>
       <c r="C23" s="23"/>
       <c r="D23" s="10" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4184,8 +4187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03345100-042D-4FEF-ADD8-004BAB1EB1EC}">
   <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H20" sqref="D16:H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4235,117 +4238,117 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="24" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B5" s="22"/>
       <c r="C5" s="26"/>
       <c r="D5" s="5" t="s">
-        <v>256</v>
+        <v>504</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B6" s="22"/>
       <c r="C6" s="26"/>
       <c r="D6" s="5" t="s">
-        <v>260</v>
+        <v>505</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>261</v>
+        <v>214</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>262</v>
+        <v>215</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>263</v>
+        <v>216</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="22"/>
       <c r="C7" s="26"/>
       <c r="D7" s="5" t="s">
-        <v>264</v>
+        <v>506</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="240" x14ac:dyDescent="0.25">
       <c r="B8" s="22"/>
       <c r="C8" s="26"/>
       <c r="D8" s="5" t="s">
-        <v>268</v>
+        <v>507</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>272</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="22"/>
       <c r="C9" s="26"/>
       <c r="D9" s="5" t="s">
-        <v>273</v>
+        <v>508</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>13</v>
@@ -4355,349 +4358,349 @@
       <c r="B10" s="22"/>
       <c r="C10" s="26"/>
       <c r="D10" s="5" t="s">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>278</v>
+        <v>228</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="22"/>
       <c r="C11" s="22" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>496</v>
+        <v>391</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>520</v>
+        <v>413</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="6" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>491</v>
+        <v>386</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>519</v>
+        <v>412</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
       <c r="D13" s="6" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>490</v>
+        <v>385</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>518</v>
+        <v>411</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
       <c r="D14" s="6" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>497</v>
+        <v>392</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>517</v>
+        <v>410</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B15" s="22"/>
       <c r="C15" s="22"/>
       <c r="D15" s="6" t="s">
-        <v>515</v>
+        <v>408</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>484</v>
+        <v>380</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>516</v>
+        <v>409</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
       <c r="D16" s="6" t="s">
-        <v>291</v>
+        <v>509</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>495</v>
+        <v>390</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>514</v>
+        <v>407</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="32.25" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="22"/>
       <c r="C17" s="22"/>
       <c r="D17" s="6" t="s">
-        <v>294</v>
+        <v>510</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>295</v>
+        <v>243</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>494</v>
+        <v>389</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>513</v>
+        <v>406</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
       <c r="D18" s="6" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>297</v>
+        <v>245</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>492</v>
+        <v>387</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>512</v>
+        <v>405</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="60" x14ac:dyDescent="0.25">
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
       <c r="D19" s="6" t="s">
-        <v>298</v>
+        <v>511</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>493</v>
+        <v>388</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>511</v>
+        <v>404</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="6" t="s">
-        <v>300</v>
+        <v>512</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>489</v>
+        <v>384</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>510</v>
+        <v>403</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="6" t="s">
-        <v>302</v>
+        <v>513</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>500</v>
+        <v>395</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>509</v>
+        <v>402</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>304</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="6" t="s">
-        <v>305</v>
+        <v>250</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>508</v>
+        <v>401</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
       <c r="D23" s="6" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>311</v>
+        <v>256</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="22"/>
       <c r="C24" s="22"/>
       <c r="D24" s="6" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>313</v>
+        <v>258</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>312</v>
+        <v>257</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>314</v>
+        <v>259</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
       <c r="D25" s="6" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>315</v>
+        <v>260</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="6" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="9" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>323</v>
+        <v>268</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>308</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B28" s="27" t="s">
-        <v>324</v>
+        <v>269</v>
       </c>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -4708,7 +4711,7 @@
     </row>
     <row r="29" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B29" s="28" t="s">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
@@ -4719,7 +4722,7 @@
     </row>
     <row r="30" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B30" s="29" t="s">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
@@ -4730,7 +4733,7 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="30" t="s">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="30"/>
@@ -4741,7 +4744,7 @@
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="30" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="30"/>
@@ -4752,11 +4755,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:H32"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="B4:B27"/>
     <mergeCell ref="C4:C10"/>
@@ -4767,6 +4765,11 @@
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:H32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4776,9 +4779,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFF538FB-4517-403F-8115-DDCB136C443E}">
   <dimension ref="B2:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4826,824 +4827,824 @@
       <c r="H3" s="23"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
-        <v>342</v>
+      <c r="B4" s="24" t="s">
+        <v>457</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>342</v>
+        <v>457</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>476</v>
+        <v>514</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>343</v>
+        <v>414</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>447</v>
+        <v>348</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="32"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="32"/>
       <c r="D5" s="7" t="s">
-        <v>477</v>
+        <v>515</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>345</v>
+        <v>415</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>346</v>
+        <v>288</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>447</v>
+        <v>348</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="32"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="32"/>
       <c r="D6" s="7" t="s">
-        <v>478</v>
+        <v>516</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>347</v>
+        <v>416</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="32"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="32"/>
       <c r="D7" s="7" t="s">
-        <v>479</v>
+        <v>377</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>349</v>
+        <v>417</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>444</v>
+        <v>345</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="32"/>
       <c r="D8" s="7" t="s">
-        <v>351</v>
+        <v>290</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>350</v>
+        <v>418</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>291</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>506</v>
+        <v>399</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="32"/>
       <c r="D9" s="7" t="s">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>353</v>
+        <v>419</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>355</v>
+        <v>293</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>507</v>
+        <v>400</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="32"/>
       <c r="D10" s="7" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>356</v>
+        <v>420</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>294</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>445</v>
+        <v>346</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="32"/>
       <c r="D11" s="7" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>358</v>
+        <v>421</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>359</v>
+        <v>295</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>446</v>
+        <v>347</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>437</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B12" s="32"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="32"/>
       <c r="D12" s="7" t="s">
-        <v>361</v>
+        <v>296</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>360</v>
+        <v>422</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>448</v>
+        <v>349</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>449</v>
+        <v>350</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B13" s="32"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="32"/>
       <c r="D13" s="7" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>362</v>
+        <v>423</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>438</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="32"/>
       <c r="D14" s="7" t="s">
-        <v>365</v>
+        <v>298</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>364</v>
+        <v>424</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>365</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>365</v>
+        <v>298</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>438</v>
+        <v>339</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="32"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="32"/>
       <c r="D15" s="7" t="s">
-        <v>367</v>
+        <v>299</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>366</v>
+        <v>425</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>367</v>
+        <v>299</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>367</v>
+        <v>299</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>438</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="32"/>
       <c r="D16" s="7" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>368</v>
+        <v>426</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>369</v>
+        <v>300</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>438</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="32"/>
       <c r="D17" s="7" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>371</v>
+        <v>301</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>438</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="32"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="32"/>
       <c r="D18" s="7" t="s">
-        <v>373</v>
+        <v>302</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>373</v>
+        <v>302</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>373</v>
+        <v>302</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>438</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="32"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="32"/>
       <c r="D19" s="7" t="s">
-        <v>375</v>
+        <v>303</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>450</v>
+        <v>351</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>451</v>
+        <v>352</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="32"/>
       <c r="D20" s="7" t="s">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>456</v>
+        <v>357</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>457</v>
+        <v>358</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="32"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="32"/>
       <c r="D21" s="7" t="s">
-        <v>379</v>
+        <v>305</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>378</v>
+        <v>431</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>485</v>
+        <v>381</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="32"/>
       <c r="D22" s="7" t="s">
-        <v>381</v>
+        <v>306</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>382</v>
+        <v>307</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>453</v>
+        <v>354</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="32"/>
       <c r="D23" s="7" t="s">
-        <v>384</v>
+        <v>308</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>384</v>
+        <v>308</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>454</v>
+        <v>355</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B24" s="32"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="32"/>
       <c r="D24" s="7" t="s">
-        <v>452</v>
+        <v>353</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>385</v>
+        <v>434</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>482</v>
+        <v>378</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>455</v>
+        <v>356</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>439</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="32"/>
       <c r="D25" s="7" t="s">
-        <v>387</v>
+        <v>309</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>388</v>
+        <v>310</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>458</v>
+        <v>359</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="32"/>
       <c r="D26" s="7" t="s">
-        <v>461</v>
+        <v>362</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>459</v>
+        <v>360</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>460</v>
+        <v>361</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="32"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="32"/>
       <c r="D27" s="7" t="s">
-        <v>391</v>
+        <v>311</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>391</v>
+        <v>311</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>453</v>
+        <v>354</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B28" s="32"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="32"/>
       <c r="D28" s="7" t="s">
-        <v>393</v>
+        <v>312</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>462</v>
+        <v>363</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>463</v>
+        <v>364</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="32"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="32"/>
       <c r="D29" s="7" t="s">
-        <v>395</v>
+        <v>313</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>395</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>464</v>
+        <v>365</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B30" s="32"/>
+      <c r="B30" s="22"/>
       <c r="C30" s="32"/>
       <c r="D30" s="7" t="s">
-        <v>483</v>
+        <v>379</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>397</v>
+        <v>314</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>465</v>
+        <v>366</v>
       </c>
       <c r="H30" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B31" s="32"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="32"/>
       <c r="D31" s="7" t="s">
-        <v>399</v>
+        <v>315</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>400</v>
+        <v>316</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="32"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="32"/>
       <c r="D32" s="7" t="s">
-        <v>402</v>
+        <v>317</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>403</v>
+        <v>318</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="B33" s="32"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="32"/>
       <c r="D33" s="7" t="s">
-        <v>405</v>
+        <v>319</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>486</v>
+        <v>382</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>505</v>
+        <v>398</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B34" s="32"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="32"/>
       <c r="D34" s="7" t="s">
-        <v>487</v>
+        <v>383</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>406</v>
+        <v>444</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>407</v>
+        <v>320</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>466</v>
+        <v>367</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="32"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="32"/>
       <c r="D35" s="7" t="s">
-        <v>409</v>
+        <v>321</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>410</v>
+        <v>322</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>475</v>
+        <v>376</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="32"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="22"/>
       <c r="C36" s="32"/>
       <c r="D36" s="7" t="s">
-        <v>488</v>
+        <v>519</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>412</v>
+        <v>323</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>447</v>
+        <v>348</v>
       </c>
       <c r="H36" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B37" s="32"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="32"/>
       <c r="D37" s="7" t="s">
-        <v>414</v>
+        <v>324</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>415</v>
+        <v>325</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>474</v>
+        <v>375</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B38" s="32"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="32"/>
       <c r="D38" s="7" t="s">
-        <v>417</v>
+        <v>326</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>443</v>
+        <v>344</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>467</v>
+        <v>368</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="32"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="32"/>
       <c r="D39" s="7" t="s">
-        <v>419</v>
+        <v>327</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>420</v>
+        <v>328</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>468</v>
+        <v>369</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="B40" s="32"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="32"/>
       <c r="D40" s="7" t="s">
-        <v>422</v>
+        <v>329</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>442</v>
+        <v>343</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>469</v>
+        <v>370</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B41" s="32"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="32"/>
       <c r="D41" s="7" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>423</v>
+        <v>451</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>424</v>
+        <v>330</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>504</v>
+        <v>397</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B42" s="32"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="32"/>
       <c r="D42" s="7" t="s">
-        <v>426</v>
+        <v>331</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>427</v>
+        <v>332</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>470</v>
+        <v>371</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B43" s="32"/>
+      <c r="B43" s="22"/>
       <c r="C43" s="32"/>
       <c r="D43" s="7" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>441</v>
+        <v>342</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>503</v>
+        <v>396</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="B44" s="32"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="32"/>
       <c r="D44" s="7" t="s">
-        <v>430</v>
+        <v>333</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>429</v>
+        <v>454</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>440</v>
+        <v>341</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>471</v>
+        <v>372</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B45" s="32"/>
+      <c r="B45" s="22"/>
       <c r="C45" s="32"/>
       <c r="D45" s="7" t="s">
-        <v>432</v>
+        <v>334</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>433</v>
+        <v>335</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>472</v>
+        <v>373</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B46" s="33"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="33"/>
       <c r="D46" s="10" t="s">
-        <v>435</v>
+        <v>336</v>
       </c>
       <c r="E46" s="20" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>436</v>
+        <v>337</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>473</v>
+        <v>374</v>
       </c>
       <c r="H46" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
